--- a/tmp/02112017/02112017.txt-total-recap.xlsx
+++ b/tmp/02112017/02112017.txt-total-recap.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4 - insert</t>
+          <t>4 - POLICÍA-VERÓNICA</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -537,237 +537,237 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5 - POLICÍA-VERÓNICA</t>
+          <t>5 - POLICÍA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6 - POLICÍA</t>
+          <t>6 - POLICÍA EN LA CALLE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7 - POLICÍA EN LA CALLE</t>
+          <t>7 - NIÑO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8 - NIÑO</t>
+          <t>8 - CARTEL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9 - CARTEL</t>
+          <t>9 - POLICÍA POR RADIO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10 - POLICÍA POR RADIO</t>
+          <t>10 - NENE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11 - NENE</t>
+          <t>11 - IRENE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12 - IRENE</t>
+          <t>12 - LUCÍA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13 - LUCÍA</t>
+          <t>13 - MADRE</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14 - MADRE</t>
+          <t>14 - CANCIÓN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15 - CANCIÓN</t>
+          <t>15 - PROFESOR</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16 - PROFESOR</t>
+          <t>16 - PROFESORA</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>17 - PROFESORA</t>
+          <t>17 - PROFESORA DE CIENCIAS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18 - PROFESORA DE CIENCIAS</t>
+          <t>18 - ALUMNAS</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19 - ALUMNAS</t>
+          <t>19 - ROSA</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20 - ROSA</t>
+          <t>20 - DIANA</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21 - DIANA</t>
+          <t>21 - MONJA</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22 - MONJA</t>
+          <t>22 - Insert</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>23 - Insert</t>
+          <t>23 - NIÑA</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>24 - NIÑA</t>
+          <t>24 - ROSA-DIANA</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25 - VERÓNICA_OFF</t>
+          <t>25 - MÉDICO</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>26 - ROSA-DIANA</t>
+          <t>26 - MADRE DE ROSA</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>27 - MÉDICO</t>
+          <t>27 - VOZ OFF</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>28 - MADRE DE ROSA</t>
+          <t>28 - TELEVISIÓN</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -777,97 +777,97 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>29 - VOZ OFF</t>
+          <t>29 - VOZ</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30 - TELEVISIÓN</t>
+          <t>30 - SEÑORA</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>31 - VOZ</t>
+          <t>31 - PROFESORA LITERATURA</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>32 - SEÑORA</t>
+          <t>32 - SOR NARCISA</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>33 - PROFESORA LITERATURA</t>
+          <t>33 - JOSEFA</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>34 - SOR NARCISA</t>
+          <t>34 - PELÍCULA EN LA TELE</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>35 - JOSEFA</t>
+          <t>35 - LUCÍA E IRENE</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>36 - PELÍCULA EN LA TELE</t>
+          <t>36 - CHICO</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>37 - LUCÍA E IRENE</t>
+          <t>37 - ROS</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>38 - CHICO</t>
+          <t>38 - CHICA EN EL BAÑO</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -877,7 +877,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>39 - ROS</t>
+          <t>39 - AMIGA</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -887,17 +887,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>40 - CHICA EN EL BAÑO</t>
+          <t>40 - CLIENTE DEL BAR</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>41 - AMIGA</t>
+          <t>41 - CLIENTE</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -907,17 +907,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>42 - CLIENTE DEL BAR</t>
+          <t>42 - CAMARERA</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>43 - CLIENTE</t>
+          <t>43 - CLIENTES</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -927,50 +927,30 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>44 - CAMARERA</t>
+          <t>44 - LOCUTOR</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>45 - CLIENTES</t>
+          <t>45 - POLICÍA DOS</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>46 - LOCUTOR</t>
+          <t>46 - INSPECTOR</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>47 - POLICÍA DOS</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>48 - INSPECTOR</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
         <v>1</v>
       </c>
     </row>
